--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Status</t>
   </si>
@@ -65,9 +65,6 @@
     <t>TX/RX blink code</t>
   </si>
   <si>
-    <t>Camera to AD HOC network</t>
-  </si>
-  <si>
     <t>Calculate angles for camera</t>
   </si>
   <si>
@@ -96,6 +93,27 @@
   </si>
   <si>
     <t>Unnamed framework running on Rpi</t>
+  </si>
+  <si>
+    <t>https://jacobsalmela.com/2014/05/19/raspberry-pi-and-routing-turning-a-pi-into-a-router/</t>
+  </si>
+  <si>
+    <t>Enclosure for parts and wires</t>
+  </si>
+  <si>
+    <t>x is done, o is not doing (moved on to something else), K is in progress Karl, L is in progress Layne</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Camera control via wifi in new architecture</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Integration</t>
   </si>
 </sst>
 </file>
@@ -447,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D21"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -463,134 +481,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>15</v>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Status</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Integration</t>
+  </si>
+  <si>
+    <t>Fix BCM issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,6 +654,16 @@
         <v>29</v>
       </c>
     </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\Desktop\cognito-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Status</t>
   </si>
@@ -104,22 +104,28 @@
     <t>x is done, o is not doing (moved on to something else), K is in progress Karl, L is in progress Layne</t>
   </si>
   <si>
+    <t>Camera control via wifi in new architecture</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Fix BCM issue</t>
+  </si>
+  <si>
+    <t>Fix read_alfred issue</t>
+  </si>
+  <si>
+    <t>Figure out why motion sensor is not working</t>
+  </si>
+  <si>
     <t>K</t>
   </si>
   <si>
-    <t>Camera control via wifi in new architecture</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Fix BCM issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>K,L</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E26"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +514,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -548,7 +554,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -580,7 +586,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -588,7 +594,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -603,26 +609,35 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
         <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -635,7 +650,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -643,29 +658,46 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
       <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
